--- a/AI/Offline_4/workspace/report.xlsx
+++ b/AI/Offline_4/workspace/report.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,8 +11,61 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+  <si>
+    <t>Problem file</t>
+  </si>
+  <si>
+    <t>Number of nodes</t>
+  </si>
+  <si>
+    <t>Number of backtracks</t>
+  </si>
+  <si>
+    <t>d-10-01</t>
+  </si>
+  <si>
+    <t>d-10-06</t>
+  </si>
+  <si>
+    <t>d-10-07</t>
+  </si>
+  <si>
+    <t>d-10-08</t>
+  </si>
+  <si>
+    <t>d-10-09</t>
+  </si>
+  <si>
+    <t>d-15-01</t>
+  </si>
+  <si>
+    <t>Solution scheme-1 (FC + SDF)</t>
+  </si>
+  <si>
+    <t>Solution scheme-1 (MAC + SDF)</t>
+  </si>
+  <si>
+    <t>Solution scheme-1 (MAC + IBH)</t>
+  </si>
+  <si>
+    <t>Execution time (sec)</t>
+  </si>
+  <si>
+    <t>Solution scheme-1 (MAC + Max dynamic degree)</t>
+  </si>
+  <si>
+    <t>Solution scheme-1 (FC + MDH)</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46,8 +99,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,13 +408,416 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1"/>
+    <col min="13" max="13" width="23.42578125" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4776527</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4776470</v>
+      </c>
+      <c r="D3" s="4">
+        <v>57.79</v>
+      </c>
+      <c r="E3" s="4">
+        <v>213</v>
+      </c>
+      <c r="F3" s="4">
+        <v>156</v>
+      </c>
+      <c r="G3" s="4">
+        <v>7.0010000000000003E-3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>24</v>
+      </c>
+      <c r="I3" s="4">
+        <v>11</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.13636300000000001</v>
+      </c>
+      <c r="K3">
+        <v>24</v>
+      </c>
+      <c r="L3">
+        <v>11</v>
+      </c>
+      <c r="M3">
+        <v>1.24447</v>
+      </c>
+      <c r="N3">
+        <v>41</v>
+      </c>
+      <c r="O3">
+        <v>33</v>
+      </c>
+      <c r="P3">
+        <v>6.7150000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>9054242</v>
+      </c>
+      <c r="C4" s="4">
+        <v>9054185</v>
+      </c>
+      <c r="D4" s="4">
+        <v>101.325</v>
+      </c>
+      <c r="E4" s="4">
+        <v>57</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.9989999999999999E-3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>18</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>7.2958999999999996E-2</v>
+      </c>
+      <c r="K4">
+        <v>18</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1.32477</v>
+      </c>
+      <c r="N4">
+        <v>95</v>
+      </c>
+      <c r="O4" s="4">
+        <v>80</v>
+      </c>
+      <c r="P4">
+        <v>0.14762600000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2929839</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2929782</v>
+      </c>
+      <c r="D5" s="4">
+        <v>32.3523</v>
+      </c>
+      <c r="E5" s="4">
+        <v>537</v>
+      </c>
+      <c r="F5" s="4">
+        <v>480</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1.6989000000000001E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>44</v>
+      </c>
+      <c r="I5" s="4">
+        <v>33</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.281835</v>
+      </c>
+      <c r="K5">
+        <v>44</v>
+      </c>
+      <c r="L5" s="4">
+        <v>33</v>
+      </c>
+      <c r="M5">
+        <v>1.2044600000000001</v>
+      </c>
+      <c r="N5">
+        <v>24</v>
+      </c>
+      <c r="O5" s="4">
+        <v>14</v>
+      </c>
+      <c r="P5">
+        <v>3.1260999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2265720</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2265663</v>
+      </c>
+      <c r="D6" s="4">
+        <v>27.795999999999999</v>
+      </c>
+      <c r="E6" s="4">
+        <v>278</v>
+      </c>
+      <c r="F6" s="4">
+        <v>221</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1.0994E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>34</v>
+      </c>
+      <c r="I6" s="4">
+        <v>20</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.18691099999999999</v>
+      </c>
+      <c r="K6">
+        <v>83</v>
+      </c>
+      <c r="L6">
+        <v>70</v>
+      </c>
+      <c r="M6">
+        <v>1.38022</v>
+      </c>
+      <c r="N6">
+        <v>53</v>
+      </c>
+      <c r="O6">
+        <v>41</v>
+      </c>
+      <c r="P6">
+        <v>8.9932999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6397613</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6397556</v>
+      </c>
+      <c r="D7" s="4">
+        <v>72.799400000000006</v>
+      </c>
+      <c r="E7" s="4">
+        <v>57</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2.013E-3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>13</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>5.6845E-2</v>
+      </c>
+      <c r="K7">
+        <v>19</v>
+      </c>
+      <c r="L7" s="4">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>1.4737899999999999</v>
+      </c>
+      <c r="N7">
+        <v>21</v>
+      </c>
+      <c r="O7" s="4">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>3.1241999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1624082</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1623976</v>
+      </c>
+      <c r="G8" s="4">
+        <v>86.673699999999997</v>
+      </c>
+      <c r="H8" s="5">
+        <v>204223</v>
+      </c>
+      <c r="I8" s="5">
+        <v>204192</v>
+      </c>
+      <c r="J8" s="4">
+        <v>3590</v>
+      </c>
+      <c r="K8">
+        <v>53943</v>
+      </c>
+      <c r="L8">
+        <v>53922</v>
+      </c>
+      <c r="M8">
+        <v>283.34699999999998</v>
+      </c>
+      <c r="N8">
+        <v>135213</v>
+      </c>
+      <c r="O8">
+        <v>135183</v>
+      </c>
+      <c r="P8">
+        <v>669.49699999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
